--- a/Construction/PartList.xlsx
+++ b/Construction/PartList.xlsx
@@ -16,6 +16,9 @@
     <sheet name="HVAC" sheetId="4" r:id="rId7"/>
     <sheet name="Construction" sheetId="6" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
   <si>
     <t>Water Heater</t>
   </si>
@@ -58,9 +61,6 @@
     <t>Takagi</t>
   </si>
   <si>
-    <t>T-H3M-N</t>
-  </si>
-  <si>
     <t>Waterless Toilet</t>
   </si>
   <si>
@@ -223,15 +223,9 @@
     <t>2" x 2" x 8'</t>
   </si>
   <si>
-    <t>Common Lumber</t>
-  </si>
-  <si>
     <t>Insulation - Bat</t>
   </si>
   <si>
-    <t>24" x 4" x 8'</t>
-  </si>
-  <si>
     <t>Insulation - Panel</t>
   </si>
   <si>
@@ -331,28 +325,94 @@
     <t>Cost Summary</t>
   </si>
   <si>
-    <t>Plywood</t>
-  </si>
-  <si>
-    <t>1/2" x 4' x 8'</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
     <t>Bath Sink</t>
   </si>
   <si>
-    <t>Shower Head</t>
-  </si>
-  <si>
-    <t>Shower Faucet</t>
-  </si>
-  <si>
     <t>Bath Faucet</t>
   </si>
   <si>
     <t>Shower Drain</t>
+  </si>
+  <si>
+    <t>DreamDrain</t>
+  </si>
+  <si>
+    <t>48" Stainless</t>
+  </si>
+  <si>
+    <t>Perfetto</t>
+  </si>
+  <si>
+    <t>SP0057</t>
+  </si>
+  <si>
+    <t>Shower System</t>
+  </si>
+  <si>
+    <t>Kitchen Sink</t>
+  </si>
+  <si>
+    <t>15" x 20" x 9"</t>
+  </si>
+  <si>
+    <t>T-H3M</t>
+  </si>
+  <si>
+    <t>Inlet duct</t>
+  </si>
+  <si>
+    <t>Duct 8"</t>
+  </si>
+  <si>
+    <t>Duct 6"</t>
+  </si>
+  <si>
+    <t>Cabinet Vent</t>
+  </si>
+  <si>
+    <t>Duct Side Vent</t>
+  </si>
+  <si>
+    <t>Duct End Vent</t>
+  </si>
+  <si>
+    <t>Reducer 8" - 6"</t>
+  </si>
+  <si>
+    <t>Adapter 6" - rect</t>
+  </si>
+  <si>
+    <t>22"</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Vitrifrigo</t>
+  </si>
+  <si>
+    <t>DP2600IBD4-F</t>
+  </si>
+  <si>
+    <t>marinewarehouse.com</t>
+  </si>
+  <si>
+    <t>Dimensional Lumber</t>
+  </si>
+  <si>
+    <t>OSB</t>
+  </si>
+  <si>
+    <t>7/16" x 4' x 8'</t>
+  </si>
+  <si>
+    <t>24" x 4" x 48"</t>
+  </si>
+  <si>
+    <t>Bundle price for 80.</t>
   </si>
 </sst>
 </file>
@@ -422,7 +482,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -441,6 +501,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -458,6 +519,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="components-2017-11-04"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="G12">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>94</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>15</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,22 +842,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <f>Appliances!$E$15</f>
-        <v>3185</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1">
         <f>Electrical!$G$22</f>
@@ -761,7 +866,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <f>Solar!$G$15</f>
@@ -770,7 +875,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <f>Wind!$G$20</f>
@@ -779,38 +884,38 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
-        <f>Plumbing!$G$15</f>
-        <v>2150</v>
+        <f>Plumbing!$G$17</f>
+        <v>2580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1">
-        <f>HVAC!$G$15</f>
+        <f>HVAC!$G$17</f>
         <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <f>Construction!$G$20</f>
-        <v>4000</v>
+        <v>6343.11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7">
         <f>SUM(B2:B18)</f>
-        <v>14123</v>
+        <v>18416.11</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +931,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -849,42 +954,51 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D5">
         <v>1200</v>
@@ -893,18 +1007,18 @@
         <v>1415</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -913,18 +1027,18 @@
         <v>1190</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
       </c>
       <c r="D7">
         <v>40</v>
@@ -933,19 +1047,39 @@
         <v>580</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1520</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(E2:E12)</f>
-        <v>3185</v>
+        <v>4705</v>
       </c>
     </row>
   </sheetData>
@@ -955,9 +1089,11 @@
     <hyperlink ref="F5" r:id="rId3" xr:uid="{F110CD06-9ABB-4444-A50A-5EC6E5A3A386}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{DDB865EB-A0E8-4DC9-9593-DFA6D7084888}"/>
     <hyperlink ref="F7" r:id="rId5" xr:uid="{F6773F09-CC84-4406-BC62-DA929CA61631}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{A33C7C8C-63D0-4AAF-9640-91E7686D42FB}"/>
+    <hyperlink ref="F8" r:id="rId7" location="Refrigerators" xr:uid="{4570EC2E-1ACD-41ED-B9D7-C73A0EFD9450}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -989,33 +1125,33 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>8</v>
@@ -1028,18 +1164,18 @@
         <v>2240</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1052,18 +1188,18 @@
         <v>640</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1076,18 +1212,18 @@
         <v>190</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1100,7 +1236,7 @@
         <v>170</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1130,60 +1266,60 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
@@ -1233,30 +1369,30 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -1269,18 +1405,18 @@
         <v>708</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1293,12 +1429,12 @@
         <v>480</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
         <f>SUM(G2:G14)</f>
@@ -1336,27 +1472,27 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(G2:G19)</f>
@@ -1370,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A7080D-B5FA-4E92-AB98-28582C5C4F57}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1398,22 +1534,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1424,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D2" s="8">
         <v>54</v>
@@ -1440,10 +1576,10 @@
         <v>790</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1451,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8">
         <v>120</v>
@@ -1470,21 +1606,21 @@
         <v>600</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1497,52 +1633,138 @@
         <v>760</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G10" si="0">E6*F6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
         <v>105</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>230</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <f>SUM(G2:G14)</f>
-        <v>2150</v>
+      <c r="D10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <f>SUM(G2:G16)</f>
+        <v>2580</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D914B9D-ECA4-4239-B0EF-3C5C237CD444}"/>
+    <hyperlink ref="C2" r:id="rId1" display="T-H3M-N" xr:uid="{6D914B9D-ECA4-4239-B0EF-3C5C237CD444}"/>
     <hyperlink ref="H2" r:id="rId2" xr:uid="{F8C88F3F-6138-4BE7-AF95-AB30EF4591CF}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2B0AC9FE-E25F-4BAF-9FBA-528157F7E732}"/>
     <hyperlink ref="H4" r:id="rId4" xr:uid="{BA757ED8-DFE2-4A7A-90C8-3F02A2A4AE2C}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{4779F81F-6471-4AEB-B3F5-450C6E1B4C30}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{33CD7414-1336-40F8-81F1-17AA089E9104}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{33137555-6CA2-4282-8661-05F43A0E1D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1550,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A21DCD9-6832-4B69-8BD5-31A8D5247510}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1575,33 +1797,33 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D2">
         <v>232</v>
@@ -1617,47 +1839,93 @@
         <v>360</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1">
-        <f>SUM(G2:G14)</f>
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1">
+        <f>SUM(G2:G16)</f>
         <v>360</v>
       </c>
     </row>
@@ -1675,7 +1943,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1692,30 +1960,30 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1728,98 +1996,179 @@
         <v>4000</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <f>'[1]components-2017-11-04'!$G$50</f>
+        <v>94</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="G5" s="1">
+        <f>E5*F5</f>
+        <v>309.26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <f>'[1]components-2017-11-04'!$E$28</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G6" s="1">
+        <f>E6*F6</f>
+        <v>26.7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <f>'[1]components-2017-11-04'!$G$61</f>
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <f>E7*F7</f>
+        <v>242.45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>126</v>
+      </c>
+      <c r="E9">
+        <f>'[1]components-2017-11-04'!$G$26 * 2</f>
+        <v>88</v>
+      </c>
+      <c r="F9" s="10">
+        <v>745</v>
+      </c>
+      <c r="G9" s="1">
+        <v>745</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <f>'[1]components-2017-11-04'!$G$12</f>
+        <v>6</v>
+      </c>
+      <c r="F10" s="10">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <f>E10*F10</f>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <f>'[1]components-2017-11-04'!$G$77</f>
+        <v>15</v>
+      </c>
+      <c r="F11" s="10">
+        <v>19.98</v>
+      </c>
+      <c r="G11" s="1">
+        <f>E11*F11</f>
+        <v>299.7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
+      <c r="F14" s="10">
+        <v>288</v>
+      </c>
+      <c r="G14" s="1">
+        <f>E14*F14</f>
+        <v>576</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(G2:G19)</f>
-        <v>4000</v>
+        <v>6343.11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" display="https://www.homedepot.com/p/Owens-Corning-Foamular-150-1-1-2-in-x-4-ft-x-8-ft-R-7-5-Scored-Squared-Edge-Insulation-Sheathing-88WD/202085958" xr:uid="{A6B96CE3-EC97-4194-AFB4-D00AAC8E20F6}"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://www.homedepot.com/p/1-16-in-x-4-ft-x-8-ft-Plastic-Panel-63003/202090190" xr:uid="{CDA8D2C3-6C8E-43B8-85DD-9E9E70EE36DD}"/>
+    <hyperlink ref="F9" r:id="rId3" display="https://www.homedepot.com/p/Owens-Corning-R30-Insulation-Unfaced-Batts-24-in-x-48-in-8-Bags-BU70/202756617" xr:uid="{3F29413D-3768-4ADD-B5E2-785255F667B2}"/>
+    <hyperlink ref="F14" r:id="rId4" display="https://www.homedepot.com/p/L-I-F-Industries-36-in-x-80-in-Gray-Right-Hand-Fire-Steel-Prehung-Commercial-Door-3RK/202080890" xr:uid="{4C96496D-B40E-4E7C-B345-AAF3E19EA58C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Construction/PartList.xlsx
+++ b/Construction/PartList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
   <si>
     <t>Water Heater</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Bundle price for 80.</t>
+  </si>
+  <si>
+    <t>Battery Monitor</t>
+  </si>
+  <si>
+    <t>Victron Energy</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -830,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994A592F-6247-4B79-85DC-6FFA53EDFCDE}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -841,10 +847,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -860,7 +866,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="1">
-        <f>Electrical!$G$22</f>
+        <f>Electrical!$G$23</f>
         <v>3240</v>
       </c>
     </row>
@@ -1099,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60175F00-23B5-4928-8897-B3F4EB25E3C7}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1169,80 +1175,89 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>640</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
-        <v>640</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>640</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G6" si="0">E4*F4</f>
+        <v>640</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>190</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>170</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" s="1"/>
@@ -1265,74 +1280,79 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <f>SUM(G2:G21)</f>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <f>SUM(G2:G22)</f>
         <v>3240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{7983CED0-8801-4CFB-9621-B274F3D49884}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{D3B54F12-51D3-4DB6-8D7A-3D8CF5D0CB4F}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{100CE24E-6B4B-46E3-9F3B-A34A71F57B03}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{64DD1D06-75EA-42E6-B3D7-5C03D6355243}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{D3B54F12-51D3-4DB6-8D7A-3D8CF5D0CB4F}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{100CE24E-6B4B-46E3-9F3B-A34A71F57B03}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{64DD1D06-75EA-42E6-B3D7-5C03D6355243}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2072,7 +2092,7 @@
         <f>'[1]components-2017-11-04'!$G$26 * 2</f>
         <v>88</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>745</v>
       </c>
       <c r="G9" s="1">
@@ -2093,7 +2113,7 @@
         <f>'[1]components-2017-11-04'!$G$12</f>
         <v>6</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>24</v>
       </c>
       <c r="G10" s="1">
@@ -2112,7 +2132,7 @@
         <f>'[1]components-2017-11-04'!$G$77</f>
         <v>15</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>19.98</v>
       </c>
       <c r="G11" s="1">
@@ -2135,7 +2155,7 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>288</v>
       </c>
       <c r="G14" s="1">
